--- a/storage/attendance/attendance_sheet1.xlsx
+++ b/storage/attendance/attendance_sheet1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manjari\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAYTECH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,16 +65,16 @@
     <t>days</t>
   </si>
   <si>
-    <t>DIPI0011</t>
-  </si>
-  <si>
-    <t>HIMANI SHARMA</t>
+    <t>idowu</t>
+  </si>
+  <si>
+    <t>HR0002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,11 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,12 +434,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
@@ -477,14 +481,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="2">
-        <v>42975</v>
+        <v>44071</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -498,7 +502,7 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
